--- a/Banco Central/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
+++ b/Banco Central/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4132,6 +4135,56 @@
         <v>-121347</v>
       </c>
     </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71">
+        <v>4944324</v>
+      </c>
+      <c r="C71">
+        <v>609424</v>
+      </c>
+      <c r="D71">
+        <v>1682498</v>
+      </c>
+      <c r="E71">
+        <v>2652402</v>
+      </c>
+      <c r="F71">
+        <v>5066812</v>
+      </c>
+      <c r="G71">
+        <v>7236192</v>
+      </c>
+      <c r="H71">
+        <v>-87969</v>
+      </c>
+      <c r="I71">
+        <v>-2081410</v>
+      </c>
+      <c r="J71">
+        <v>645152</v>
+      </c>
+      <c r="K71">
+        <v>301092</v>
+      </c>
+      <c r="L71">
+        <v>344060</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>145479</v>
+      </c>
+      <c r="O71">
+        <v>110581</v>
+      </c>
+      <c r="P71">
+        <v>78671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
